--- a/social_media_scraper/Scraping_Output/youtube_data.xlsx
+++ b/social_media_scraper/Scraping_Output/youtube_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,753 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6a6906df-7a17-4418-8672-4e3519453357</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 hour ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.5K</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+1 hour ago
+هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع
+2.5K
+58</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:53:49</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c0be8f74-002d-4d37-af9b-c119ab07d151</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3 hours ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
+#الجزيرة_سوريا</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+3 hours ago
+#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
+#الجزيرة_سوريا
+598
+60</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:53:58</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c2ab756d-e008-47f1-8411-cbe1e71ca04b</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5 hours ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
+#الجزيرة #لبنان</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+5 hours ago
+وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
+#الجزيرة #لبنان
+468
+48</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:04</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d1d7b2ad-6bc5-4cfa-841d-55b58969bd50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7 hours ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9K</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
+#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+7 hours ago
+#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
+#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay
+9K
+210</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:11</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f23a3427-f323-429b-8238-c2abf0cb0023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9 hours ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.7K</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>#عاجل | مدير الأمن العام في محافظة #اللاذقية بسوريا: لن نسمح بإثارة الفتنة أو استهداف أي مكون من مكونات الشعب السوري
+#الجزيرة #سوريا</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+9 hours ago
+#عاجل | مدير الأمن العام في محافظة #اللاذقية بسوريا: لن نسمح بإثارة الفتنة أو استهداف أي مكون من مكونات الشعب السوري
+#الجزيرة #سوريا
+1.7K
+149</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:19</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d9cf6a1c-59dc-4ae0-851f-1fe447f6eca6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9 hours ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.1K</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ناشطون يسلطون الضوء على معاناة نساء #غزة في اليوم العالمي للمرأة
+#الجزيرة #يوم_المرأة_العالمي #WomensDay</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+9 hours ago
+ناشطون يسلطون الضوء على معاناة نساء #غزة في اليوم العالمي للمرأة
+#الجزيرة #يوم_المرأة_العالمي #WomensDay
+2.1K
+33</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:26</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>d919d0c7-4e15-4ab0-b6fe-c81ac14251af</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9 hours ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13K</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>#عاجل | حماس: جريمة الاحتلال تمتد إلى أسراه لدى المقاومة الذين يسري عليهم ما يسري على شعبنا من تضييق وتجويع
+🔴 مجرم الحرب #نتنياهو يتحمل مسؤولية تداعيات جريمة الحصار والإغلاق الوحشية وعدم اكتراثه بأسراه في قطاع غزة
+#الجزيرة #حماس</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+9 hours ago
+#عاجل | حماس: جريمة الاحتلال تمتد إلى أسراه لدى المقاومة الذين يسري عليهم ما يسري على شعبنا من تضييق وتجويع
+🔴 مجرم الحرب #نتنياهو يتحمل مسؤولية تداعيات جريمة الحصار والإغلاق الوحشية وعدم اكتراثه بأسراه في قطاع غزة
+#الجزيرة #حماس
+13K
+247</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:33</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fa77a87c-09a1-443f-a0a9-a5d3e54f3070</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>#عاجل | الدفاع المدني في جنوب #لبنان: استشهاد شخص وإصابة آخر في غارة إسرائيلية على بلدة خربة سلم
+#الجزيرة</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+10 hours ago
+#عاجل | الدفاع المدني في جنوب #لبنان: استشهاد شخص وإصابة آخر في غارة إسرائيلية على بلدة خربة سلم
+#الجزيرة
+620
+25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:41</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5cc52df3-6ffc-4eb5-8205-7a2185c77616</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10 hours ago (edited)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>#حدث_في_رمضان | وفاة إمام الحديث ابن ماجه، وهو أبو عبد الله محمد بن ماجه، أحد الأئمة في علم الحديث، في كتاب "سنن ابن ماجه"
+ #الجزيرة_في_رمضان #ابن_ماجه</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+10 hours ago (edited)
+#حدث_في_رمضان | وفاة إمام الحديث ابن ماجه، وهو أبو عبد الله محمد بن ماجه، أحد الأئمة في علم الحديث، في كتاب "سنن ابن ماجه"
+ #الجزيرة_في_رمضان #ابن_ماجه
+379
+20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-03-09 00:54:48</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/social_media_scraper/Scraping_Output/youtube_data.xlsx
+++ b/social_media_scraper/Scraping_Output/youtube_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,22 +523,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6a6906df-7a17-4418-8672-4e3519453357</t>
+          <t>77027385-7f74-44f0-93cb-d0e4ba1eb6ba</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>1 minute ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.5K</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,21 +548,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع</t>
+          <t>انطلقت منها شرارة الاحتجاجات الطلابية الداعية إلى وقف الحرب الإسرائيلية على غزة.. المدعية العامة الأمريكية تقول إن تسامح جامعة كولومبيا مع معاداة السامية في حرمها منذ 7 أكتوبر سيتوقف تحت قيادة ترمب
+#الجزيرة #أمريكا #غزة</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-1 hour ago
-هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع
-2.5K
-58</t>
+1 minute ago
+انطلقت منها شرارة الاحتجاجات الطلابية الداعية إلى وقف الحرب الإسرائيلية على غزة.. المدعية العامة الأمريكية تقول إن تسامح جامعة كولومبيا مع معاداة السامية في حرمها منذ 7 أكتوبر سيتوقف تحت قيادة ترمب
+#الجزيرة #أمريكا #غزة
+2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-03-09 00:53:49</t>
+          <t>2025-03-09 01:01:49</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -604,22 +605,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>c0be8f74-002d-4d37-af9b-c119ab07d151</t>
+          <t>f7901845-f8e7-4571-80a8-1bb7a7853e17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>2.7K</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -629,23 +630,21 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
-#الجزيرة_سوريا</t>
+          <t>هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-3 hours ago
-#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
-#الجزيرة_سوريا
-598
-60</t>
+2 hours ago
+هتف: الحرية لفلسطين.. رجل يتسلق برج إليزابيث الذي يضم ساعة برج "بيج بن" الشهيرة في #لندن ويلوح بالعلم الفلسطيني، والشرطة البريطانية تقول إنها استدعت خدمات الطوارئ إلى قصر ويستمنستر وأغلقت شارعا قريبا في الموقع
+2.7K
+58</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-03-09 00:53:58</t>
+          <t>2025-03-09 01:01:56</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -687,22 +686,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>c2ab756d-e008-47f1-8411-cbe1e71ca04b</t>
+          <t>c0632f2a-eb0b-476c-888f-bda56a7e74b5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>601</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -712,23 +711,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
-#الجزيرة #لبنان</t>
+          <t>#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
+#الجزيرة_سوريا</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-5 hours ago
-وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
-#الجزيرة #لبنان
-468
-48</t>
+4 hours ago
+#روسيا تدعو إلى خفض التصعيد في #سوريا وبذل الجهود لإنهاء إراقة الدماء
+#الجزيرة_سوريا
+601
+61</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-03-09 00:54:04</t>
+          <t>2025-03-09 01:02:02</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -770,22 +769,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>d1d7b2ad-6bc5-4cfa-841d-55b58969bd50</t>
+          <t>2c9a908f-75d9-4730-b7fc-1cb0ddf2508a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9K</t>
+          <t>471</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -795,23 +794,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
-#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay</t>
+          <t>وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
+#الجزيرة #لبنان</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-7 hours ago
-#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
-#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay
-9K
-210</t>
+6 hours ago
+وسائل إعلام عبرية: 800 إسرائيلي يدخلون أراضي لبنانية بحماية الجيش الإسرائيلي لزيارة قبر حاخام
+#الجزيرة #لبنان
+471
+48</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-03-09 00:54:11</t>
+          <t>2025-03-09 01:02:09</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -853,36 +852,119 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>f23a3427-f323-429b-8238-c2abf0cb0023</t>
+          <t>6a35c867-f18a-48a7-b41e-afaf5cf0b2b6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8 hours ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.1K</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
+#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AlJazeera Arabic قناة الجزيرة
+8 hours ago
+#حماس: الأسيرات الفلسطينيات يتعرضن للتعذيب النفسي والجسدي في انتهاك صارخ لكل الأعراف والمواثيق الدولية
+#الجزيرة #فلسطين #يوم_المرأة_العالمي #WomensDay
+9.1K
+211</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:16</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aljazeera</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6131f2e7-8f34-427e-8e28-6fe710bffea9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>9 hours ago</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1.7K</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>#عاجل | مدير الأمن العام في محافظة #اللاذقية بسوريا: لن نسمح بإثارة الفتنة أو استهداف أي مكون من مكونات الشعب السوري
 #الجزيرة #سوريا</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
 9 hours ago
@@ -892,366 +974,366 @@
 149</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-03-09 00:54:19</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:24</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>aljazeera</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Youtube</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>d9cf6a1c-59dc-4ae0-851f-1fe447f6eca6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2b632463-b3d6-494e-a198-c253711d408b</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>9 hours ago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2.1K</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>ناشطون يسلطون الضوء على معاناة نساء #غزة في اليوم العالمي للمرأة
 #الجزيرة #يوم_المرأة_العالمي #WomensDay</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
 9 hours ago
 ناشطون يسلطون الضوء على معاناة نساء #غزة في اليوم العالمي للمرأة
 #الجزيرة #يوم_المرأة_العالمي #WomensDay
 2.1K
-33</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2025-03-09 00:54:26</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:32</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>aljazeera</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Youtube</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>d919d0c7-4e15-4ab0-b6fe-c81ac14251af</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9 hours ago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>af7889b0-dbe4-433c-831e-ab5f893a4263</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>13K</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>#عاجل | حماس: جريمة الاحتلال تمتد إلى أسراه لدى المقاومة الذين يسري عليهم ما يسري على شعبنا من تضييق وتجويع
 🔴 مجرم الحرب #نتنياهو يتحمل مسؤولية تداعيات جريمة الحصار والإغلاق الوحشية وعدم اكتراثه بأسراه في قطاع غزة
 #الجزيرة #حماس</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-9 hours ago
+10 hours ago
 #عاجل | حماس: جريمة الاحتلال تمتد إلى أسراه لدى المقاومة الذين يسري عليهم ما يسري على شعبنا من تضييق وتجويع
 🔴 مجرم الحرب #نتنياهو يتحمل مسؤولية تداعيات جريمة الحصار والإغلاق الوحشية وعدم اكتراثه بأسراه في قطاع غزة
 #الجزيرة #حماس
 13K
-247</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2025-03-09 00:54:33</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+248</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:38</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>aljazeera</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Youtube</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>fa77a87c-09a1-443f-a0a9-a5d3e54f3070</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>b572b8ef-78f9-4c62-8bb8-2c320d386394</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>10 hours ago</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>#عاجل | الدفاع المدني في جنوب #لبنان: استشهاد شخص وإصابة آخر في غارة إسرائيلية على بلدة خربة سلم
 #الجزيرة</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
 10 hours ago
 #عاجل | الدفاع المدني في جنوب #لبنان: استشهاد شخص وإصابة آخر في غارة إسرائيلية على بلدة خربة سلم
 #الجزيرة
-620
+626
 25</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2025-03-09 00:54:41</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:45</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>aljazeera</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Youtube</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5cc52df3-6ffc-4eb5-8205-7a2185c77616</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10 hours ago (edited)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>60e8f4f6-1e0c-4a99-aef7-7c77e6929b52</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11 hours ago (edited)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>#حدث_في_رمضان | وفاة إمام الحديث ابن ماجه، وهو أبو عبد الله محمد بن ماجه، أحد الأئمة في علم الحديث، في كتاب "سنن ابن ماجه"
  #الجزيرة_في_رمضان #ابن_ماجه</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>AlJazeera Arabic قناة الجزيرة
-10 hours ago (edited)
+11 hours ago (edited)
 #حدث_في_رمضان | وفاة إمام الحديث ابن ماجه، وهو أبو عبد الله محمد بن ماجه، أحد الأئمة في علم الحديث، في كتاب "سنن ابن ماجه"
  #الجزيرة_في_رمضان #ابن_ماجه
-379
-20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-03-09 00:54:48</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+380
+19</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-03-09 01:02:51</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>

--- a/social_media_scraper/Scraping_Output/youtube_data.xlsx
+++ b/social_media_scraper/Scraping_Output/youtube_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aljazeera</t>
+          <t>aljazeeraenglish</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,22 +523,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13966e72-ebcb-44ed-bc39-89ca1b119800</t>
+          <t>01b4564d-8194-4df5-8a73-9dd72bb2b622</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10 minutes ago</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
+          <t>6 minutes ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,34 +544,46 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>اليونيسف: أزمة نقص المياه في غزة وصلت مستويات حرجة وشخص واحد فقط من كل 10 يمكنه الوصول إلى مياه شرب نظيفة⁣
-#الجزيرة #مياه_الشرب #غزة</t>
+          <t>The former president of the Philippines is set to stand trial for Crimes Against Humanity in the Hague. 
+Rodrigo Duterte has been linked to thousands of extra-judicial killings during his controversial 'war on drugs'. 
+It's considered a win for the International Criminal Court - since it's rare for such a high profile figure to be brought to justice. 
+But domestic politics may have played a role in his arrest - Duterte had made an enemy of the sitting President. 
+So is justice being served? or is international law being weaponised for political gain?  
+And what does this mean for other powerful figures wanted by the ICC?  Watch for more 👇</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AlJazeera Arabic قناة الجزيرة
-10 minutes ago
-اليونيسف: أزمة نقص المياه في غزة وصلت مستويات حرجة وشخص واحد فقط من كل 10 يمكنه الوصول إلى مياه شرب نظيفة⁣
-#الجزيرة #مياه_الشرب #غزة
+          <t>Al Jazeera English
+6 minutes ago
+The former president of the Philippines is set to stand trial for Crimes Against Humanity in the Hague. 
+Rodrigo Duterte has been linked to thousands of extra-judicial killings during his controversial 'war on drugs'. 
+It's considered a win for the International Criminal Court - since it's rare for such a high profile figure to be brought to justice. 
+But domestic politics may have played a role in his arrest - Duterte had made an enemy of the sitting President. 
+So is justice being served? or is international law being weaponised for political gain?  
+And what does this mean for other powerful figures wanted by the ICC?  Watch for more 👇
 Read more
-174
-8</t>
+27:51
+What's behind Rodrigo Duterte's arrest by the ICC? | Inside Story
+Al Jazeera English
+2.2K views
+1 hour ago
+The former president of the Philippines is set to stand trial for Crimes Against Humanity in the Hague. Rodrigo Duterte has been linked to thousands of extra-judicial killings during his controver...</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-03-12 00:11:25</t>
+          <t>2025-03-12 22:07:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.2K views</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.9M subscribers</t>
+          <t>15.4M subscribers</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -585,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>video</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -597,7 +605,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aljazeera</t>
+          <t>aljazeeraenglish</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -607,7 +615,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eb67f8b3-7f4d-4f85-b0af-3baeedd06dda</t>
+          <t>5cea1191-6522-4542-b31a-d1696d39396f</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -617,12 +625,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -632,32 +640,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>#حدث_في_رمضان |</t>
+          <t>Dozens of soldiers have been killed in Pakistan after a standoff between security forces and separatist fighters in Balochistan province.  Watch for more 👇</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AlJazeera Arabic قناة الجزيرة
+          <t>Al Jazeera English
 2 hours ago
-#حدث_في_رمضان |
-Read more
-1K
-15</t>
+Dozens of soldiers have been killed in Pakistan after a standoff between security forces and separatist fighters in Balochistan province.  Watch for more 👇
+7:51
+Pakistan frees Balochistan train hostages after deadly standoff with BLA fighters
+Al Jazeera English
+13K views
+2 hours ago
+Dozens of soldiers and security personnel were killed in a standoff between Pakistani forces and Balochistan Liberation Army (BLA) fighters, who attacked and derailed a train in Bolan district,...
+60
+1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-03-12 00:11:30</t>
+          <t>2025-03-12 22:07:07</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13K views</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>19.9M subscribers</t>
+          <t>15.4M subscribers</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -667,7 +680,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>video</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -679,7 +692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aljazeera</t>
+          <t>aljazeeraenglish</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -689,22 +702,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>b142a160-fd13-4255-9788-00ebc8f3d4d1</t>
+          <t>3bce1d1d-33e4-4f40-95e9-8b75a8e98e80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -714,26 +727,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://youtube.com/shorts/eY52x5oLPOg
-لُقب بالرئيس المعمار لاهتمامه الكبير بالتطوير والبناء.. ماذا تعرف عن الشيخ تاج الدين الحسني ثاني رئيس لـ الجمهورية السورية؟
-#الجزيرة_بروفايل #سوريا</t>
+          <t>Bosnia orders police to bring in Republika Srpska President Milorad Dodik
+Prosecutors order detention of three top Bosnian Serb officials over alleged attack on constitutional order.
+Read for more 👉 https://aje.io/rczbx6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AlJazeera Arabic قناة الجزيرة
-3 hours ago
-https://youtube.com/shorts/eY52x5oLPOg
-لُقب بالرئيس المعمار لاهتمامه الكبير بالتطوير والبناء.. ماذا تعرف عن الشيخ تاج الدين الحسني ثاني رئيس لـ الجمهورية السورية؟
-#الجزيرة_بروفايل #سوريا
-Read more
-302
-7</t>
+          <t>Al Jazeera English
+2 hours ago
+Bosnia orders police to bring in Republika Srpska President Milorad Dodik
+Prosecutors order detention of three top Bosnian Serb officials over alleged attack on constitutional order.
+Read for more 👉 https://aje.io/rczbx6
+178
+10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-03-12 00:11:35</t>
+          <t>2025-03-12 22:07:13</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -743,7 +755,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19.9M subscribers</t>
+          <t>15.4M subscribers</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -765,7 +777,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aljazeera</t>
+          <t>aljazeeraenglish</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -775,7 +787,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>e61e97c5-9c3c-4ec3-905c-09f87a00d493</t>
+          <t>b1823c6c-a87d-42c6-a5f6-a82ae9ae24bc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -785,12 +797,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7K</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -800,36 +812,42 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>#عاجل | القيادي في حماس عبد الرحمن شديد:
- ندعو القوى الحية في الضفة والقدس إلى توحيد الكلمة وتعزيز الصمود والمقاومة
-#حرب_غزة #الجزيرة #الضفة_الغربية</t>
+          <t>United States President Donald Trump is pushing to slash public spending and implement tariffs on countries including China, Canada and Mexico, straining diplomatic relations. He, together with billionaire Elon Musk, is also gutting the federal government and purging its workforce.
+What impact will these measures have on US citizens? And how will they affect the country’s global standing?
+Watch for more 👇</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AlJazeera Arabic قناة الجزيرة
+          <t>Al Jazeera English
 4 hours ago
-#عاجل | القيادي في حماس عبد الرحمن شديد:
- ندعو القوى الحية في الضفة والقدس إلى توحيد الكلمة وتعزيز الصمود والمقاومة
-#حرب_غزة #الجزيرة #الضفة_الغربية
+United States President Donald Trump is pushing to slash public spending and implement tariffs on countries including China, Canada and Mexico, straining diplomatic relations. He, together with billionaire Elon Musk, is also gutting the federal government and purging its workforce.
+What impact will these measures have on US citizens? And how will they affect the country’s global standing?
+Watch for more 👇
 Read more
-7K
-115</t>
+37:11
+The American empire is over: Richard Wolff on Trump, tariffs and the rising power of BRICS | UpFront
+Al Jazeera English
+875K views
+5 days ago
+United States President Donald Trump is pushing to slash public spending and implement tariffs on countries including China, Canada and Mexico, straining diplomatic relations. He, together...
+98
+6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-03-12 00:11:40</t>
+          <t>2025-03-12 22:07:20</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>875K views</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19.9M subscribers</t>
+          <t>15.4M subscribers</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -839,10 +857,1376 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>326092b2-74e4-4bbc-801d-b5c4b43e639c</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5 hours ago</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.7K</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yemen’s Houthis to resume shipping attacks over Gaza aid cutoff
+Yemeni rebels warn Israeli ships ‘violating’ Red Sea ‘ban’ will be targeted as four-day deadline for the resumption of aid to Palestinian enclave passes. Read for more 👉 https://aje.io/e32cl4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+5 hours ago
+Yemen’s Houthis to resume shipping attacks over Gaza aid cutoff
+Yemeni rebels warn Israeli ships ‘violating’ Red Sea ‘ban’ will be targeted as four-day deadline for the resumption of aid to Palestinian enclave passes. Read for more 👉 https://aje.io/e32cl4
+2.7K
+207</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:25</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>image</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>269ae7ef-978d-4369-b4d2-a2a1d68d59a1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6 hours ago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Between 1952 and 1960, Britain fought a vicious war in Kenya against the anticolonial Mau Mau movement. It was an exceptionally bloody conflict, with atrocities committed on both sides. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+6 hours ago
+Between 1952 and 1960, Britain fought a vicious war in Kenya against the anticolonial Mau Mau movement. It was an exceptionally bloody conflict, with atrocities committed on both sides. Watch for more 👇
+45:52
+A Very British Way of Torture | Featured Documentaries
+Al Jazeera English
+1.4M views
+2 years ago
+Between 1952 and 1960, Britain fought a vicious war in Kenya against the anticolonial Mau Mau movement. It was an exceptionally bloody conflict, with atrocities committed on both sides. ...
+126
+5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:32</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.4M views</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f0646911-e542-4f43-9d90-5b3849dab780</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7 hours ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ramadan 2025: Fasting hours and iftar times around the world
+The dawn-to-dusk fast lasts anywhere from 13 to 16 hours, depending on where in the world you are.
+Read for more 👉 https://aje.io/afxmfx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+7 hours ago
+Ramadan 2025: Fasting hours and iftar times around the world
+The dawn-to-dusk fast lasts anywhere from 13 to 16 hours, depending on where in the world you are.
+Read for more 👉 https://aje.io/afxmfx
+954
+38</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:36</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>c21e8cb9-887a-42c6-91ab-867363bc9a78</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8 hours ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A historian and a chef discover a 1,000 year-old Arab cookbook from Baghdad and how its recipes reached southern Spain. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+8 hours ago
+A historian and a chef discover a 1,000 year-old Arab cookbook from Baghdad and how its recipes reached southern Spain. Watch for more 👇
+46:29
+Flavours of the Arab Golden Age - EP 1: Baghdad and al-Andalus | Al Jazeera World Documentary
+Al Jazeera English
+3.9K views
+1 day ago
+A historian and a chef discover a 1,000 year-old Arab cookbook from Baghdad and how its recipes reached southern Spain. A historian and a chef go on a culinary journey through history to discover...
+44</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:44</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3.9K views</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>842b8015-fec3-4cbc-a1a0-0e63330cf2f5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9 hours ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Iran, Russia, China conduct joint naval drills in Gulf of Oman: 
+The exercises are aimed at strengthening cooperation between the three countries, and get under way as Iran accuses the US of ‘bullying’.
+Read for more 👉 https://aje.io/2rnkb2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+9 hours ago
+Iran, Russia, China conduct joint naval drills in Gulf of Oman: 
+The exercises are aimed at strengthening cooperation between the three countries, and get under way as Iran accuses the US of ‘bullying’.
+Read for more 👉 https://aje.io/2rnkb2
+1K
+108</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:49</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>68d21cb9-ddfa-4a09-849e-fb348a94fd14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10 hours ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Stream examines the hidden poisons we're exposed to in our everyday lives. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+10 hours ago
+The Stream examines the hidden poisons we're exposed to in our everyday lives. Watch for more 👇
+25:16
+Is everything killing us? | The Stream
+Al Jazeera English
+2.8K views
+1 day ago
+From the food we eat to the air we breathe, we’re constantly exposed to chemicals, toxins and plastics, raising concerns about their potential harm. How much of what we hear is grounded in...
+33</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:07:56</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2.8K views</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1b039bfc-f509-4c2b-a0c1-e2864abb83fd</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11 hours ago</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tariffs on all steel and aluminium imports into the United States have come into effect, intensifying the global trade war sparked by President Donald Trump.
+One sector in the US that relies heavily on both steel and alumnium is food and beverage.  
+Watch for more 👉 https://youtu.be/2XC1s3yGD1U</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+11 hours ago
+Tariffs on all steel and aluminium imports into the United States have come into effect, intensifying the global trade war sparked by President Donald Trump.
+One sector in the US that relies heavily on both steel and alumnium is food and beverage.  
+Watch for more 👉 https://youtu.be/2XC1s3yGD1U
+214
+26</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:01</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>efc0fbe0-7745-43ea-98c7-eeba0240e367</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12 hours ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ukraine agrees to a US proposal for a 30-day ceasefire with Russia after crunch talks in Saudi Arabia. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+12 hours ago
+Ukraine agrees to a US proposal for a 30-day ceasefire with Russia after crunch talks in Saudi Arabia. Watch for more 👇
+Ukraine ready to accept US plan for 30-day ceasefire with Russia
+Al Jazeera English
+17K views
+15 hours ago
+Ukraine has backed a US proposal for a 30-day ceasefire, but there's no word yet on whether Russia will agree to it after three years of war. The breakthrough came after nine hours of talks...
+52
+2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:08</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>17K views</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>33006548-62d2-4976-8738-a76db051289c</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13 hours ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passengers released after an attack on a train in southwest Pakistan have been receiving medical treatment in the city of Quetta.
+The train was travelling from the provincial capital of Quetta to the northern city of Peshawar when gunmen struck inside a tunnel.
+It was carrying around 450 people at the time, and at least 100 were taken hostage. 
+Most of the women and children were released.
+The separatist Balochistan Liberation Army (BLA) has claimed responsibility for the attack. 
+Watch for more 👉 </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+13 hours ago
+Passengers released after an attack on a train in southwest Pakistan have been receiving medical treatment in the city of Quetta.
+The train was travelling from the provincial capital of Quetta to the northern city of Peshawar when gunmen struck inside a tunnel.
+It was carrying around 450 people at the time, and at least 100 were taken hostage. 
+Most of the women and children were released.
+The separatist Balochistan Liberation Army (BLA) has claimed responsibility for the attack. 
+Watch for more 👉 
+Read more
+259
+65</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:13</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4c2ad10f-945f-4f2b-9626-3d25cf1cb41a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14 hours ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Former Israeli adviser Daniel Levy argues Israel will continue to thwart attempts to solidify the ceasefire in Gaza. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+14 hours ago
+Former Israeli adviser Daniel Levy argues Israel will continue to thwart attempts to solidify the ceasefire in Gaza. Watch for more 👇
+Why is Israel trying to rewrite the Gaza ceasefire? | The Bottom Line
+Al Jazeera English
+36K views
+1 day ago
+As long as Israel keeps moving the goalposts, former Israeli government adviser Daniel Levy argues, there's no way to reach phase two of the ceasefire in Gaza, which Israel itself signed. ...
+38
+5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:20</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>36K views</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>af6e4b17-4599-4b7b-8b1d-b13d8ddc06e9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15 hours ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>‘Entire families’ killed in Syria fighting, UN says
+Hundreds reported killed in violence in Syria’s coastal region, which is heavily populated by Alawites. Read for more 👉 https://www.aljazeera.com/news/2025/3...</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+15 hours ago
+‘Entire families’ killed in Syria fighting, UN says
+Hundreds reported killed in violence in Syria’s coastal region, which is heavily populated by Alawites. Read for more 👉 https://www.aljazeera.com/news/2025/3...
+416
+56</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:25</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>b6f3132d-0aab-468e-8a8e-c642094d5eda</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16 hours ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Early on Tuesday, Moscow's outskirts were hit by 91 Ukrainian drones, part of a larger attack involving at least 343 drones that targeted multiple regions overnight, killing at least three people. Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+16 hours ago
+Early on Tuesday, Moscow's outskirts were hit by 91 Ukrainian drones, part of a larger attack involving at least 343 drones that targeted multiple regions overnight, killing at least three people. Watch for more 👇
+Ukraine hits Russia with biggest drone attack killing three people
+Al Jazeera English
+9K views
+1 day ago
+Early on Tuesday, Moscow's outskirts were hit by 91 Ukrainian drones, part of a larger attack involving at least 343 drones that targeted multiple regions overnight, killing at least three...
+68
+3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:32</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>9K views</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1fa93c30-993e-4b28-99b2-01c163b9bb50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17 hours ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>EXPLAINER: Deadly Pakistan train hijack: What happened, and what’s next? Separatist Baloch group claims responsibility, says it has killed six security personnel, holds hundreds hostage. Read for more 👉https://www.aljazeera.com/news/2025/3...</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+17 hours ago
+EXPLAINER: Deadly Pakistan train hijack: What happened, and what’s next? Separatist Baloch group claims responsibility, says it has killed six security personnel, holds hundreds hostage. Read for more 👉https://www.aljazeera.com/news/2025/3...
+221
+79</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:37</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bb910c97-0f50-47c3-9927-cfe3e1cf0a02</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Former Philippine President Rodrigo Duterte has been arrested for crimes against humanity over the killing of thousands of drug suspects during his time in office. Within the last few hours, his plane departed from Manila airport, heading to The Hague, where he will face the International Criminal Court (ICC). Watch for more 👇</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+18 hours ago
+Former Philippine President Rodrigo Duterte has been arrested for crimes against humanity over the killing of thousands of drug suspects during his time in office. Within the last few hours, his plane departed from Manila airport, heading to The Hague, where he will face the International Criminal Court (ICC). Watch for more 👇
+Former Philippine President Rodrigo Duterte arrested for crimes against humanity
+Al Jazeera English
+10K views
+20 hours ago
+Former Philippine President Rodrigo Duterte has been arrested for crimes against humanity over the killing of thousands of drug suspects during his time in office. Within the last few hours,...
+33
+5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:44</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10K views</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>df9f73a5-7bc3-4121-94ed-e59f687e88d7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18 hours ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Israeli military carries out air attacks near Gaza City: Reports
+Israeli forces are carrying out “bombing operations” east of Gaza City in northern Gaza, according to the Palestinian Information Center and the Quds News Network.
+The target of the attacks is not immediately clear. No casualties have been reported so far.
+We will bring you updates when we have them.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+18 hours ago
+Israeli military carries out air attacks near Gaza City: Reports
+Israeli forces are carrying out “bombing operations” east of Gaza City in northern Gaza, according to the Palestinian Information Center and the Quds News Network.
+The target of the attacks is not immediately clear. No casualties have been reported so far.
+We will bring you updates when we have them.
+Read more
+740
+91</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:49</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aljazeeraenglish</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>e1960d99-65a4-454d-a961-bc5dc72c00c9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>To those who subscribed to our channel, we say THANK YOU! 👉 https://bit.ly/3LEoLAh</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Al Jazeera English
+19 hours ago
+To those who subscribed to our channel, we say THANK YOU! 👉 https://bit.ly/3LEoLAh
+658
+19</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:08:54</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>15.4M subscribers</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
